--- a/py_xl/RUNS/ALL/sample.xlsx
+++ b/py_xl/RUNS/ALL/sample.xlsx
@@ -1,69 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonNizham\py_xl\RUNS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF7E17-BE07-49AA-A9DC-4D26295980B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8625" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GAJI" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="GAJI"/>
+    <sheet r:id="rId2" sheetId="2" name="DATA"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>NIK</t>
   </si>
@@ -183,6 +135,24 @@
   </si>
   <si>
     <t>'08118989234</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>#DIV/0!</t>
+  </si>
+  <si>
+    <t>#VALUE!</t>
+  </si>
+  <si>
+    <t>#NAME?</t>
+  </si>
+  <si>
+    <t>#NUM!</t>
+  </si>
+  <si>
+    <t>#NULL!</t>
   </si>
   <si>
     <t>#DATE!</t>
@@ -194,8 +164,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -239,12 +216,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
+        <fgColor rgb="FFf8cbad"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,16 +242,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -282,148 +259,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="26">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>8</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>13</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>12</v>
-    <v>0</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -472,71 +396,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,7 +488,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -587,11 +511,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -600,13 +524,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -616,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -625,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -634,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -642,10 +566,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -710,910 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>912071</v>
-      </c>
-      <c r="B2" s="8">
-        <v>350002</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1262073</v>
-      </c>
-      <c r="D2" s="16">
-        <v>182414.2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1079658.8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="5">
-        <v>448872</v>
-      </c>
-      <c r="C3" s="5">
-        <v>448872</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>448872</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>495605.67</v>
-      </c>
-      <c r="B4" s="5">
-        <v>488171</v>
-      </c>
-      <c r="C4" s="5">
-        <v>983776</v>
-      </c>
-      <c r="D4" s="5">
-        <v>99121</v>
-      </c>
-      <c r="E4" s="5">
-        <v>884655</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>799464</v>
-      </c>
-      <c r="B5" s="5">
-        <v>214417</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1013881</v>
-      </c>
-      <c r="D5" s="5">
-        <v>159892.79999999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>853988.2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>64929</v>
-      </c>
-      <c r="B6" s="5">
-        <v>324970</v>
-      </c>
-      <c r="C6" s="5">
-        <v>389899</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12985.8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-376913.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>959847</v>
-      </c>
-      <c r="B7" s="5">
-        <v>144113</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1103960.99</v>
-      </c>
-      <c r="D7" s="5">
-        <v>191969.4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>911990.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>805001</v>
-      </c>
-      <c r="B8" s="5">
-        <v>414396</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1219397</v>
-      </c>
-      <c r="D8" s="5">
-        <v>161000.20000000001</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1058396.8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>923363</v>
-      </c>
-      <c r="B9" s="5">
-        <v>271054</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1194417</v>
-      </c>
-      <c r="D9" s="5">
-        <v>184672.6</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1009744.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>282580</v>
-      </c>
-      <c r="B10" s="5">
-        <v>169463</v>
-      </c>
-      <c r="C10" s="5">
-        <v>452043</v>
-      </c>
-      <c r="D10" s="5">
-        <v>56516</v>
-      </c>
-      <c r="E10" s="5">
-        <v>395527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>96122</v>
-      </c>
-      <c r="B11" s="5">
-        <v>490631</v>
-      </c>
-      <c r="C11" s="5">
-        <v>586753</v>
-      </c>
-      <c r="D11" s="5">
-        <v>19224.400000000001</v>
-      </c>
-      <c r="E11" s="5">
-        <v>567528.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>798094</v>
-      </c>
-      <c r="B12" s="5">
-        <v>321762</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1119856</v>
-      </c>
-      <c r="D12" s="5">
-        <v>159618.79999999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-960237.2</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>200222</v>
-      </c>
-      <c r="B13" s="5">
-        <v>474244</v>
-      </c>
-      <c r="C13" s="5">
-        <v>674466</v>
-      </c>
-      <c r="D13" s="5">
-        <v>40044.400000000001</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>65407</v>
-      </c>
-      <c r="B14" s="5">
-        <v>42142</v>
-      </c>
-      <c r="C14" s="5">
-        <v>107549</v>
-      </c>
-      <c r="D14" s="18">
-        <v>13081.4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>94467.6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>686073</v>
-      </c>
-      <c r="B15" s="5">
-        <v>427165</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1113238</v>
-      </c>
-      <c r="D15" s="5">
-        <v>137214.6</v>
-      </c>
-      <c r="E15" s="5">
-        <v>976023.4</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>16216</v>
-      </c>
-      <c r="B16" s="8">
-        <v>119175</v>
-      </c>
-      <c r="C16" s="8">
-        <v>135391</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3243.2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>132147.79999999999</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>875325</v>
-      </c>
-      <c r="B17" s="5">
-        <v>291481</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1166806</v>
-      </c>
-      <c r="D17" s="5">
-        <v>175065</v>
-      </c>
-      <c r="E17" s="5">
-        <v>991741</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>465591</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43023.15</v>
-      </c>
-      <c r="C18" s="5">
-        <v>508614</v>
-      </c>
-      <c r="D18" s="5">
-        <v>93118.2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>415495.8</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>576575</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <v>576575</v>
-      </c>
-      <c r="D19" s="5">
-        <v>115315</v>
-      </c>
-      <c r="E19" s="5">
-        <v>461260</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>163642</v>
-      </c>
-      <c r="B20" s="5">
-        <v>-274497</v>
-      </c>
-      <c r="C20" s="5">
-        <v>438139</v>
-      </c>
-      <c r="D20" s="5">
-        <v>32728.400000000001</v>
-      </c>
-      <c r="E20" s="5">
-        <v>405410.6</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>925970</v>
-      </c>
-      <c r="B21" s="5">
-        <v>31786</v>
-      </c>
-      <c r="C21" s="5">
-        <v>957756</v>
-      </c>
-      <c r="D21" s="5">
-        <v>185194</v>
-      </c>
-      <c r="E21" s="5">
-        <v>772562</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>959847</v>
-      </c>
-      <c r="B22" s="5">
-        <v>144113</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1103960</v>
-      </c>
-      <c r="D22" s="5">
-        <v>191969.4</v>
-      </c>
-      <c r="E22" s="5">
-        <v>911990.6</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>138130</v>
-      </c>
-      <c r="B23" s="5">
-        <v>293141</v>
-      </c>
-      <c r="C23" s="5">
-        <v>431271</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-27626</v>
-      </c>
-      <c r="E23" s="5">
-        <v>403645</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>678319</v>
-      </c>
-      <c r="B24" s="5">
-        <v>217251</v>
-      </c>
-      <c r="C24" s="5">
-        <v>895570</v>
-      </c>
-      <c r="D24" s="5">
-        <v>135663.79999999999</v>
-      </c>
-      <c r="E24" s="5">
-        <v>759906.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>74021</v>
-      </c>
-      <c r="B25" s="5">
-        <v>106553</v>
-      </c>
-      <c r="C25" s="5">
-        <v>180574</v>
-      </c>
-      <c r="D25" s="5">
-        <v>14804.2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>165769.79999999999</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>388249</v>
-      </c>
-      <c r="B26" s="5">
-        <v>61773</v>
-      </c>
-      <c r="C26" s="5">
-        <v>450022</v>
-      </c>
-      <c r="D26" s="5">
-        <v>77649.8</v>
-      </c>
-      <c r="E26" s="5">
-        <v>372372.2</v>
-      </c>
-      <c r="F26" s="20">
-        <v>333356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>492184</v>
-      </c>
-      <c r="B27" s="5">
-        <v>136741</v>
-      </c>
-      <c r="C27" s="5">
-        <v>628925</v>
-      </c>
-      <c r="D27" s="5">
-        <v>98436.800000000003</v>
-      </c>
-      <c r="E27" s="5">
-        <v>530488.19999999995</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>611450</v>
-      </c>
-      <c r="B28" s="5">
-        <v>470040</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>122290</v>
-      </c>
-      <c r="E28" s="5">
-        <v>-122290</v>
-      </c>
-      <c r="F28" s="20">
-        <v>8118989234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>972068</v>
-      </c>
-      <c r="B29" s="5">
-        <v>309974</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1282042</v>
-      </c>
-      <c r="D29" s="5">
-        <v>194413.6</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1087628.3999999999</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>967422</v>
-      </c>
-      <c r="B30" s="5">
-        <v>366974</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1334396</v>
-      </c>
-      <c r="D30" s="5">
-        <v>193484.4</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1140911.6000000001</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>889385</v>
-      </c>
-      <c r="B31" s="5">
-        <v>453938</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1343323</v>
-      </c>
-      <c r="D31" s="5">
-        <v>177877</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1165446</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>392286</v>
-      </c>
-      <c r="B32" s="5">
-        <v>92809</v>
-      </c>
-      <c r="C32" s="5">
-        <v>-485095</v>
-      </c>
-      <c r="D32" s="5">
-        <v>78457.2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>406637.8</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>326224</v>
-      </c>
-      <c r="B33" s="5">
-        <v>368224</v>
-      </c>
-      <c r="C33" s="5">
-        <v>694448</v>
-      </c>
-      <c r="D33" s="5">
-        <v>65244.800000000003</v>
-      </c>
-      <c r="E33" s="5">
-        <v>629203.19999999995</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>519767</v>
-      </c>
-      <c r="B34" s="5">
-        <v>306618</v>
-      </c>
-      <c r="C34" s="5">
-        <v>826385</v>
-      </c>
-      <c r="D34" s="5">
-        <v>103953.4</v>
-      </c>
-      <c r="E34" s="5">
-        <v>722431.6</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>595232</v>
-      </c>
-      <c r="B35" s="5">
-        <v>163915</v>
-      </c>
-      <c r="C35" s="5">
-        <v>759147</v>
-      </c>
-      <c r="D35" s="5">
-        <v>119046.39999999999</v>
-      </c>
-      <c r="E35" s="5">
-        <v>640100.6</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>350758</v>
-      </c>
-      <c r="B36" s="5">
-        <v>168196</v>
-      </c>
-      <c r="C36" s="5">
-        <v>518954</v>
-      </c>
-      <c r="D36" s="5">
-        <v>70151.600000000006</v>
-      </c>
-      <c r="E36" s="5">
-        <v>448802.4</v>
-      </c>
-      <c r="F36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>800974</v>
-      </c>
-      <c r="B37" s="5">
-        <v>106262</v>
-      </c>
-      <c r="C37" s="5">
-        <v>907236</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>907236</v>
-      </c>
-      <c r="F37" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>768575</v>
-      </c>
-      <c r="B38" s="5">
-        <v>135756</v>
-      </c>
-      <c r="C38" s="5">
-        <v>904331</v>
-      </c>
-      <c r="D38" s="5">
-        <v>153715</v>
-      </c>
-      <c r="E38" s="5">
-        <v>750616</v>
-      </c>
-      <c r="F38" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>993511</v>
-      </c>
-      <c r="B39" s="5">
-        <v>253414</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1246925</v>
-      </c>
-      <c r="D39" s="5">
-        <v>198702.2</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1048222.8</v>
-      </c>
-      <c r="F39" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>394973</v>
-      </c>
-      <c r="B40" s="5">
-        <v>385963</v>
-      </c>
-      <c r="C40" s="5">
-        <v>780936</v>
-      </c>
-      <c r="D40" s="5">
-        <v>78994.600000000006</v>
-      </c>
-      <c r="E40" s="5">
-        <v>701941.4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>692671</v>
-      </c>
-      <c r="B41" s="5">
-        <v>200806</v>
-      </c>
-      <c r="C41" s="5">
-        <v>893477</v>
-      </c>
-      <c r="D41" s="5">
-        <v>138534.20000000001</v>
-      </c>
-      <c r="E41" s="5">
-        <v>754942.8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>799107</v>
-      </c>
-      <c r="B42" s="5">
-        <v>160017</v>
-      </c>
-      <c r="C42" s="5">
-        <v>959124</v>
-      </c>
-      <c r="D42" s="5">
-        <v>159821.4</v>
-      </c>
-      <c r="E42" s="5">
-        <v>799302.6</v>
-      </c>
-      <c r="F42" t="e">
-        <v>#NULL!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>959847</v>
-      </c>
-      <c r="B43" s="5">
-        <v>144113</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1103960</v>
-      </c>
-      <c r="D43" s="5">
-        <v>191969.4</v>
-      </c>
-      <c r="E43" s="5">
-        <v>911990.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>990429</v>
-      </c>
-      <c r="B44" s="5">
-        <v>114695</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1105124</v>
-      </c>
-      <c r="D44" s="5">
-        <v>198085.8</v>
-      </c>
-      <c r="E44" s="5">
-        <v>907038.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>-11011</v>
-      </c>
-      <c r="B45" s="5">
-        <v>174252</v>
-      </c>
-      <c r="C45" s="5">
-        <v>185263</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2202.1999999999998</v>
-      </c>
-      <c r="E45" s="5">
-        <v>183060.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>334146</v>
-      </c>
-      <c r="B46" s="5">
-        <v>215608</v>
-      </c>
-      <c r="C46" s="5">
-        <v>549754</v>
-      </c>
-      <c r="D46" s="5">
-        <v>66829.2</v>
-      </c>
-      <c r="E46" s="5">
-        <v>482924.79999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1623,15 +644,927 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="8">
+        <v>912071</v>
+      </c>
+      <c r="B2" s="8">
+        <v>350002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1262073</v>
+      </c>
+      <c r="D2" s="16">
+        <v>182414.2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1079658.8</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="5">
+        <v>448872</v>
+      </c>
+      <c r="C3" s="5">
+        <v>448872</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>448872</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
+        <v>495605.67</v>
+      </c>
+      <c r="B4" s="5">
+        <v>488171</v>
+      </c>
+      <c r="C4" s="5">
+        <v>983776</v>
+      </c>
+      <c r="D4" s="5">
+        <v>99121</v>
+      </c>
+      <c r="E4" s="5">
+        <v>884655</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5">
+        <v>799464</v>
+      </c>
+      <c r="B5" s="5">
+        <v>214417</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1013881</v>
+      </c>
+      <c r="D5" s="5">
+        <v>159892.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>853988.2</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5">
+        <v>64929</v>
+      </c>
+      <c r="B6" s="5">
+        <v>324970</v>
+      </c>
+      <c r="C6" s="5">
+        <v>389899</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12985.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-376913.2</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5">
+        <v>959847</v>
+      </c>
+      <c r="B7" s="5">
+        <v>144113</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1103960.99</v>
+      </c>
+      <c r="D7" s="5">
+        <v>191969.4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>911990.6</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5">
+        <v>805001</v>
+      </c>
+      <c r="B8" s="5">
+        <v>414396</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1219397</v>
+      </c>
+      <c r="D8" s="5">
+        <v>161000.2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1058396.8</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5">
+        <v>923363</v>
+      </c>
+      <c r="B9" s="5">
+        <v>271054</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1194417</v>
+      </c>
+      <c r="D9" s="5">
+        <v>184672.6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1009744.4</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5">
+        <v>282580</v>
+      </c>
+      <c r="B10" s="5">
+        <v>169463</v>
+      </c>
+      <c r="C10" s="5">
+        <v>452043</v>
+      </c>
+      <c r="D10" s="5">
+        <v>56516</v>
+      </c>
+      <c r="E10" s="5">
+        <v>395527</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="5">
+        <v>96122</v>
+      </c>
+      <c r="B11" s="5">
+        <v>490631</v>
+      </c>
+      <c r="C11" s="5">
+        <v>586753</v>
+      </c>
+      <c r="D11" s="5">
+        <v>19224.4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>567528.6</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5">
+        <v>798094</v>
+      </c>
+      <c r="B12" s="5">
+        <v>321762</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1119856</v>
+      </c>
+      <c r="D12" s="5">
+        <v>159618.8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-960237.2</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5">
+        <v>200222</v>
+      </c>
+      <c r="B13" s="5">
+        <v>474244</v>
+      </c>
+      <c r="C13" s="5">
+        <v>674466</v>
+      </c>
+      <c r="D13" s="5">
+        <v>40044.4</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="5">
+        <v>65407</v>
+      </c>
+      <c r="B14" s="5">
+        <v>42142</v>
+      </c>
+      <c r="C14" s="5">
+        <v>107549</v>
+      </c>
+      <c r="D14" s="21">
+        <v>13081.4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>94467.6</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="5">
+        <v>686073</v>
+      </c>
+      <c r="B15" s="5">
+        <v>427165</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1113238</v>
+      </c>
+      <c r="D15" s="5">
+        <v>137214.6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>976023.4</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="8">
+        <v>16216</v>
+      </c>
+      <c r="B16" s="8">
+        <v>119175</v>
+      </c>
+      <c r="C16" s="8">
+        <v>135391</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3243.2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>132147.8</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
+        <v>875325</v>
+      </c>
+      <c r="B17" s="5">
+        <v>291481</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1166806</v>
+      </c>
+      <c r="D17" s="5">
+        <v>175065</v>
+      </c>
+      <c r="E17" s="5">
+        <v>991741</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5">
+        <v>465591</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43023.15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>508614</v>
+      </c>
+      <c r="D18" s="5">
+        <v>93118.2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>415495.8</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="5">
+        <v>576575</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>576575</v>
+      </c>
+      <c r="D19" s="5">
+        <v>115315</v>
+      </c>
+      <c r="E19" s="5">
+        <v>461260</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="5">
+        <v>163642</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-274497</v>
+      </c>
+      <c r="C20" s="5">
+        <v>438139</v>
+      </c>
+      <c r="D20" s="5">
+        <v>32728.4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>405410.6</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="5">
+        <v>925970</v>
+      </c>
+      <c r="B21" s="5">
+        <v>31786</v>
+      </c>
+      <c r="C21" s="5">
+        <v>957756</v>
+      </c>
+      <c r="D21" s="5">
+        <v>185194</v>
+      </c>
+      <c r="E21" s="5">
+        <v>772562</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="5">
+        <v>959847</v>
+      </c>
+      <c r="B22" s="5">
+        <v>144113</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1103960</v>
+      </c>
+      <c r="D22" s="5">
+        <v>191969.4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>911990.6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="5">
+        <v>138130</v>
+      </c>
+      <c r="B23" s="5">
+        <v>293141</v>
+      </c>
+      <c r="C23" s="5">
+        <v>431271</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-27626</v>
+      </c>
+      <c r="E23" s="5">
+        <v>403645</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="5">
+        <v>678319</v>
+      </c>
+      <c r="B24" s="5">
+        <v>217251</v>
+      </c>
+      <c r="C24" s="5">
+        <v>895570</v>
+      </c>
+      <c r="D24" s="5">
+        <v>135663.8</v>
+      </c>
+      <c r="E24" s="5">
+        <v>759906.2</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="5">
+        <v>74021</v>
+      </c>
+      <c r="B25" s="5">
+        <v>106553</v>
+      </c>
+      <c r="C25" s="5">
+        <v>180574</v>
+      </c>
+      <c r="D25" s="5">
+        <v>14804.2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>165769.8</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="5">
+        <v>388249</v>
+      </c>
+      <c r="B26" s="5">
+        <v>61773</v>
+      </c>
+      <c r="C26" s="5">
+        <v>450022</v>
+      </c>
+      <c r="D26" s="5">
+        <v>77649.8</v>
+      </c>
+      <c r="E26" s="5">
+        <v>372372.2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>333356</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="5">
+        <v>492184</v>
+      </c>
+      <c r="B27" s="5">
+        <v>136741</v>
+      </c>
+      <c r="C27" s="5">
+        <v>628925</v>
+      </c>
+      <c r="D27" s="5">
+        <v>98436.8</v>
+      </c>
+      <c r="E27" s="5">
+        <v>530488.2</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="5">
+        <v>611450</v>
+      </c>
+      <c r="B28" s="5">
+        <v>470040</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>122290</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-122290</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8118989234</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="5">
+        <v>972068</v>
+      </c>
+      <c r="B29" s="5">
+        <v>309974</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1282042</v>
+      </c>
+      <c r="D29" s="5">
+        <v>194413.6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1087628.4</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="5">
+        <v>967422</v>
+      </c>
+      <c r="B30" s="5">
+        <v>366974</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1334396</v>
+      </c>
+      <c r="D30" s="5">
+        <v>193484.4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1140911.6</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="5">
+        <v>889385</v>
+      </c>
+      <c r="B31" s="5">
+        <v>453938</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1343323</v>
+      </c>
+      <c r="D31" s="5">
+        <v>177877</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1165446</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="5">
+        <v>392286</v>
+      </c>
+      <c r="B32" s="5">
+        <v>92809</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-485095</v>
+      </c>
+      <c r="D32" s="5">
+        <v>78457.2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>406637.8</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="5">
+        <v>326224</v>
+      </c>
+      <c r="B33" s="5">
+        <v>368224</v>
+      </c>
+      <c r="C33" s="5">
+        <v>694448</v>
+      </c>
+      <c r="D33" s="5">
+        <v>65244.8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>629203.2</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="5">
+        <v>519767</v>
+      </c>
+      <c r="B34" s="5">
+        <v>306618</v>
+      </c>
+      <c r="C34" s="5">
+        <v>826385</v>
+      </c>
+      <c r="D34" s="5">
+        <v>103953.4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>722431.6</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="5">
+        <v>595232</v>
+      </c>
+      <c r="B35" s="5">
+        <v>163915</v>
+      </c>
+      <c r="C35" s="5">
+        <v>759147</v>
+      </c>
+      <c r="D35" s="5">
+        <v>119046.4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>640100.6</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="5">
+        <v>350758</v>
+      </c>
+      <c r="B36" s="5">
+        <v>168196</v>
+      </c>
+      <c r="C36" s="5">
+        <v>518954</v>
+      </c>
+      <c r="D36" s="5">
+        <v>70151.6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>448802.4</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="5">
+        <v>800974</v>
+      </c>
+      <c r="B37" s="5">
+        <v>106262</v>
+      </c>
+      <c r="C37" s="5">
+        <v>907236</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>907236</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="5">
+        <v>768575</v>
+      </c>
+      <c r="B38" s="5">
+        <v>135756</v>
+      </c>
+      <c r="C38" s="5">
+        <v>904331</v>
+      </c>
+      <c r="D38" s="5">
+        <v>153715</v>
+      </c>
+      <c r="E38" s="5">
+        <v>750616</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="5">
+        <v>993511</v>
+      </c>
+      <c r="B39" s="5">
+        <v>253414</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1246925</v>
+      </c>
+      <c r="D39" s="5">
+        <v>198702.2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1048222.8</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="5">
+        <v>394973</v>
+      </c>
+      <c r="B40" s="5">
+        <v>385963</v>
+      </c>
+      <c r="C40" s="5">
+        <v>780936</v>
+      </c>
+      <c r="D40" s="5">
+        <v>78994.6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>701941.4</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="5">
+        <v>692671</v>
+      </c>
+      <c r="B41" s="5">
+        <v>200806</v>
+      </c>
+      <c r="C41" s="5">
+        <v>893477</v>
+      </c>
+      <c r="D41" s="5">
+        <v>138534.2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>754942.8</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="5">
+        <v>799107</v>
+      </c>
+      <c r="B42" s="5">
+        <v>160017</v>
+      </c>
+      <c r="C42" s="5">
+        <v>959124</v>
+      </c>
+      <c r="D42" s="5">
+        <v>159821.4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>799302.6</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="5">
+        <v>959847</v>
+      </c>
+      <c r="B43" s="5">
+        <v>144113</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1103960</v>
+      </c>
+      <c r="D43" s="5">
+        <v>191969.4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>911990.6</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="5">
+        <v>990429</v>
+      </c>
+      <c r="B44" s="5">
+        <v>114695</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1105124</v>
+      </c>
+      <c r="D44" s="5">
+        <v>198085.8</v>
+      </c>
+      <c r="E44" s="5">
+        <v>907038.2</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="5">
+        <v>-11011</v>
+      </c>
+      <c r="B45" s="5">
+        <v>174252</v>
+      </c>
+      <c r="C45" s="5">
+        <v>185263</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2202.2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>183060.8</v>
+      </c>
+      <c r="F45" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="5">
+        <v>334146</v>
+      </c>
+      <c r="B46" s="5">
+        <v>215608</v>
+      </c>
+      <c r="C46" s="5">
+        <v>549754</v>
+      </c>
+      <c r="D46" s="5">
+        <v>66829.2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>482924.8</v>
+      </c>
+      <c r="F46" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="18.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>9056</v>
       </c>
@@ -1669,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>7928</v>
       </c>
@@ -1689,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>6286</v>
       </c>
@@ -1709,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>2536</v>
       </c>
@@ -1729,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>6654803</v>
@@ -1747,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>6029</v>
       </c>
@@ -1765,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>3988</v>
       </c>
@@ -1785,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>2682</v>
       </c>
@@ -1805,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>8529</v>
       </c>
@@ -1825,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>1376</v>
       </c>
@@ -1845,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7">
         <v>1295</v>
       </c>
@@ -1865,7 +1798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>8845</v>
       </c>
@@ -1885,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>2767</v>
       </c>
@@ -1905,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>2909</v>
       </c>
@@ -1925,7 +1858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>5666</v>
       </c>
@@ -1945,7 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>6418</v>
       </c>
@@ -1963,7 +1896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>4836</v>
       </c>
@@ -1981,7 +1914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>8495</v>
       </c>
@@ -2001,7 +1934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>4843</v>
       </c>
@@ -2021,7 +1954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>3520</v>
       </c>
@@ -2041,7 +1974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>9629</v>
       </c>
@@ -2061,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>5590</v>
       </c>
@@ -2081,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>5055</v>
       </c>
@@ -2101,7 +2034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>8751</v>
       </c>
@@ -2119,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>5614</v>
       </c>
@@ -2139,7 +2072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>6467</v>
       </c>
@@ -2157,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>2779</v>
       </c>
@@ -2177,7 +2110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>5122</v>
       </c>
@@ -2197,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>9952</v>
       </c>
@@ -2217,7 +2150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>7399</v>
       </c>
@@ -2237,7 +2170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>7717</v>
       </c>
@@ -2257,7 +2190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="7"/>
       <c r="B33" s="7">
         <v>5423004</v>
@@ -2275,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>9277</v>
       </c>
@@ -2295,7 +2228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>3339</v>
       </c>
@@ -2315,7 +2248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>2779</v>
       </c>
@@ -2333,7 +2266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="7">
         <v>1827</v>
       </c>
@@ -2353,7 +2286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>1208</v>
       </c>
@@ -2373,7 +2306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
         <v>7052</v>
       </c>
@@ -2393,7 +2326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4">
         <v>6091</v>
       </c>
@@ -2413,7 +2346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4">
         <v>2159</v>
       </c>
@@ -2433,7 +2366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4">
         <v>5083</v>
       </c>
@@ -2453,7 +2386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4">
         <v>4635</v>
       </c>
@@ -2473,7 +2406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4">
         <v>2791</v>
       </c>
@@ -2493,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4">
         <v>3574</v>
       </c>
@@ -2511,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4">
         <v>9906</v>
       </c>
